--- a/public/template_karyawan.xlsx
+++ b/public/template_karyawan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fadhilfn04/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fadhilfn04/Documents/Work/Projects/PUNDIRUPIAH/metronic_laravel_v8.2.6/prediksi-kinerja-karyawan/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91168BCA-D2C1-674C-9628-C55547985C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC84096-FA6C-114C-93B9-27AECB5A7A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4180" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{9AC636AB-3F41-CD4D-B413-BB8CBF7D4A58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>nik</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Staff IT</t>
+  </si>
+  <si>
+    <t>umur</t>
+  </si>
+  <si>
+    <t>nilai_produktivitas</t>
   </si>
 </sst>
 </file>
@@ -443,15 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0210CA1F-66A1-D94F-BC96-02ECA32ABD4B}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,48 +468,60 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1234567890</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>220</v>
       </c>
-      <c r="G2">
+      <c r="I2">
+        <v>70</v>
+      </c>
+      <c r="J2">
         <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_karyawan.xlsx
+++ b/public/template_karyawan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fadhilfn04/Documents/Work/Projects/PUNDIRUPIAH/metronic_laravel_v8.2.6/prediksi-kinerja-karyawan/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC84096-FA6C-114C-93B9-27AECB5A7A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529D6AC-B639-B44E-9E34-766D21FCCE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{9AC636AB-3F41-CD4D-B413-BB8CBF7D4A58}"/>
+    <workbookView xWindow="7440" yWindow="4000" windowWidth="28040" windowHeight="17440" xr2:uid="{9AC636AB-3F41-CD4D-B413-BB8CBF7D4A58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="110">
   <si>
     <t>nik</t>
   </si>
@@ -53,31 +53,319 @@
     <t>lama_bekerja</t>
   </si>
   <si>
-    <t>jumlah_kehadiran</t>
-  </si>
-  <si>
     <t>hasil_penilaian_kinerja_sebelumnya</t>
   </si>
   <si>
     <t>jabatan</t>
   </si>
   <si>
-    <t>Budi Santoso</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>S1</t>
   </si>
   <si>
-    <t>Staff IT</t>
-  </si>
-  <si>
-    <t>umur</t>
-  </si>
-  <si>
-    <t>nilai_produktivitas</t>
+    <t>kehadiran</t>
+  </si>
+  <si>
+    <t>produktivitas_kerja</t>
+  </si>
+  <si>
+    <t>usia</t>
+  </si>
+  <si>
+    <t>AHMAD WAHYUDIN</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ENGKUS KUSNADI</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>ASEP SOPIAN</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>WITRI</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>FERIAN HERLANGGA</t>
+  </si>
+  <si>
+    <t>ACEP SAEPUDIN</t>
+  </si>
+  <si>
+    <t>DEWI PUTRI</t>
+  </si>
+  <si>
+    <t>RINA AGUSTINA</t>
+  </si>
+  <si>
+    <t>RANGGA ADAM</t>
+  </si>
+  <si>
+    <t>ACOS</t>
+  </si>
+  <si>
+    <t>ZIDAN ZULFIAN</t>
+  </si>
+  <si>
+    <t>SELVINA FAZA</t>
+  </si>
+  <si>
+    <t>KHAERUNNISA KOMALASARI</t>
+  </si>
+  <si>
+    <t>WINDA ASTUTI</t>
+  </si>
+  <si>
+    <t>DERLAN SATRIA</t>
+  </si>
+  <si>
+    <t>DEVI NOVITASARI</t>
+  </si>
+  <si>
+    <t>EKA ERLANGGA</t>
+  </si>
+  <si>
+    <t>PIPIH LUTFIANI</t>
+  </si>
+  <si>
+    <t>ROSA YULIA</t>
+  </si>
+  <si>
+    <t>FIQRI FADILLAH</t>
+  </si>
+  <si>
+    <t>NABILLA PUTRI</t>
+  </si>
+  <si>
+    <t>LUTFI KAMAL</t>
+  </si>
+  <si>
+    <t>LYRA SHAQEENA</t>
+  </si>
+  <si>
+    <t>SAM ANDRIANSYAH</t>
+  </si>
+  <si>
+    <t>SHELBY KRISTANTO</t>
+  </si>
+  <si>
+    <t>DELLA PUTRI ANDINI</t>
+  </si>
+  <si>
+    <t>GILANG FEBIAN</t>
+  </si>
+  <si>
+    <t>DONNY PUTRA</t>
+  </si>
+  <si>
+    <t>CREW</t>
+  </si>
+  <si>
+    <t>TIDAK TERCAPAI</t>
+  </si>
+  <si>
+    <t>DINI ARYANI</t>
+  </si>
+  <si>
+    <t>TERCAPAI</t>
+  </si>
+  <si>
+    <t>CINTA NURASIFA</t>
+  </si>
+  <si>
+    <t>RIKA FITRIANI</t>
+  </si>
+  <si>
+    <t>TAUFIK HIDAYAT</t>
+  </si>
+  <si>
+    <t>RIZKI ZIDAN</t>
+  </si>
+  <si>
+    <t>HANNA NURFADILLAH</t>
+  </si>
+  <si>
+    <t>SUCI ENDAH</t>
+  </si>
+  <si>
+    <t>ALYA AGUSTINA</t>
+  </si>
+  <si>
+    <t>ZACKY SAEPULOH</t>
+  </si>
+  <si>
+    <t>SALMAN ALFARIZI</t>
+  </si>
+  <si>
+    <t>RISKA ANGGRAENI</t>
+  </si>
+  <si>
+    <t>DINI SRINANDA</t>
+  </si>
+  <si>
+    <t>DICKY SEPTIADI</t>
+  </si>
+  <si>
+    <t>IYAN DARMAWAN</t>
+  </si>
+  <si>
+    <t>MUHHAMAD ILHAM</t>
+  </si>
+  <si>
+    <t>FEBBY NABILA</t>
+  </si>
+  <si>
+    <t>NABILLA SALSA AULIA</t>
+  </si>
+  <si>
+    <t>ALFIANSYAH</t>
+  </si>
+  <si>
+    <t>MAYANG SARI</t>
+  </si>
+  <si>
+    <t>REZA RIFALDI</t>
+  </si>
+  <si>
+    <t>TRIA PUSPITA</t>
+  </si>
+  <si>
+    <t>RAYHAN ALFARAZ</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>RIZKY SAEPULOH</t>
+  </si>
+  <si>
+    <t>NIA SEPTIANA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SOBRI</t>
+  </si>
+  <si>
+    <t>DIMAS FERDIANSYAH</t>
+  </si>
+  <si>
+    <t>JENNI NOVIA</t>
+  </si>
+  <si>
+    <t>DEPY RIZKI</t>
+  </si>
+  <si>
+    <t>SULASTRI</t>
+  </si>
+  <si>
+    <t>TASYA NAMIRA</t>
+  </si>
+  <si>
+    <t>TRRCAPAI</t>
+  </si>
+  <si>
+    <t>RANGGA PRADITYA</t>
+  </si>
+  <si>
+    <t>REVAN AGUSTIAN</t>
+  </si>
+  <si>
+    <t>DIVA AZAHRA</t>
+  </si>
+  <si>
+    <t>SALWA MAULINA</t>
+  </si>
+  <si>
+    <t>TIARA PUSPITA SARI</t>
+  </si>
+  <si>
+    <t>INTAN NURAENI</t>
+  </si>
+  <si>
+    <t>YUNITA AULIA PUTRI</t>
+  </si>
+  <si>
+    <t>RISMAN M RIZKI</t>
+  </si>
+  <si>
+    <t>GIFARI DANIS</t>
+  </si>
+  <si>
+    <t>ALVIN RAMDHANI</t>
+  </si>
+  <si>
+    <t>ANNISA NURFAUZIAH</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DAVI</t>
+  </si>
+  <si>
+    <t>10 TAHUN</t>
+  </si>
+  <si>
+    <t>8 TAHUN</t>
+  </si>
+  <si>
+    <t>12 TAHUN</t>
+  </si>
+  <si>
+    <t>11 TAHUN</t>
+  </si>
+  <si>
+    <t>6 TAHUN</t>
+  </si>
+  <si>
+    <t>7 TAHUN</t>
+  </si>
+  <si>
+    <t>4 TAHUN</t>
+  </si>
+  <si>
+    <t>3 TAHUN</t>
+  </si>
+  <si>
+    <t>5 TAHUN</t>
+  </si>
+  <si>
+    <t>2 TAHUN</t>
+  </si>
+  <si>
+    <t>1 TAHUN</t>
+  </si>
+  <si>
+    <t>7 BULAN</t>
+  </si>
+  <si>
+    <t>3 BULAN</t>
+  </si>
+  <si>
+    <t>8 BULAN</t>
+  </si>
+  <si>
+    <t>2 BULAN</t>
+  </si>
+  <si>
+    <t>1 BULAN</t>
+  </si>
+  <si>
+    <t>4 BULAN</t>
   </si>
 </sst>
 </file>
@@ -101,7 +389,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,12 +397,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,79 +756,2289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0210CA1F-66A1-D94F-BC96-02ECA32ABD4B}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>15013927</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1234567890</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1">
+        <v>90</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>17033192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1">
+        <v>26</v>
+      </c>
+      <c r="G3" s="1">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>17054787</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="1">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>13124685</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>90</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>15054304</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1">
+        <v>85</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>14090713</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>13036038</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>15006639</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="1">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>19066708</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>18044387</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>19121365</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>21080637</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>21040254</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="1">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>22103365</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>85</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>19115366</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="1">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20020939</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>19067077</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>85</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>21024930</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="1">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1">
+        <v>85</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19050395</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>22097540</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>75</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20115163</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1">
+        <v>75</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>19080875</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>21066295</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1">
+        <v>85</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>22054269</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1">
+        <v>85</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>19032597</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1">
+        <v>90</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>18041470</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="1">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
+        <v>85</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>23121468</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="1">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1">
+        <v>70</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>24100895</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="1">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1">
+        <v>85</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>25032617</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="1">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>25072823</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="1">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>24080637</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="1">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1">
+        <v>80</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="1">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>220</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>23088180</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="1">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1">
+        <v>75</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>23026168</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="1">
+        <v>26</v>
+      </c>
+      <c r="G34" s="1">
+        <v>80</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>25024302</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="1">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1">
         <v>70</v>
       </c>
-      <c r="J2">
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>25073688</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="1">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1">
+        <v>70</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>25080872</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="1">
+        <v>26</v>
+      </c>
+      <c r="G37" s="1">
+        <v>80</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>25097070</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="1">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1">
+        <v>75</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>23026168</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="1">
+        <v>24</v>
+      </c>
+      <c r="G39" s="1">
+        <v>70</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J39" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>25024302</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="1">
+        <v>24</v>
+      </c>
+      <c r="G40" s="1">
         <v>85</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>25073688</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="1">
+        <v>24</v>
+      </c>
+      <c r="G41" s="1">
+        <v>85</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>25080872</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="1">
+        <v>23</v>
+      </c>
+      <c r="G42" s="1">
+        <v>75</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>25097070</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="1">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1">
+        <v>90</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J43" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>22103432</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1">
+        <v>90</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J44" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>23044521</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="1">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1">
+        <v>90</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J45" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>23064693</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" s="1">
+        <v>26</v>
+      </c>
+      <c r="G46" s="1">
+        <v>85</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J46" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>23091028</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="1">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1">
+        <v>80</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J47" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>23112206</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="1">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1">
+        <v>90</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J48" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>24066296</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="1">
+        <v>26</v>
+      </c>
+      <c r="G49" s="1">
+        <v>90</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J49" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>24067079</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="1">
+        <v>24</v>
+      </c>
+      <c r="G50" s="1">
+        <v>75</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J50" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>25082349</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="1">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1">
+        <v>80</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>23124325</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="1">
+        <v>26</v>
+      </c>
+      <c r="G52" s="1">
+        <v>80</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>24031435</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="1">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1">
+        <v>85</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>23042459</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="1">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1">
+        <v>90</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J54" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>24063962</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="1">
+        <v>23</v>
+      </c>
+      <c r="G55" s="1">
+        <v>70</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>24080641</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" s="1">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1">
+        <v>80</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>25086102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" s="1">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1">
+        <v>75</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>22097409</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1">
+        <v>26</v>
+      </c>
+      <c r="G58" s="1">
+        <v>75</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>25032070</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="1">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1">
+        <v>80</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>25064799</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="1">
+        <v>23</v>
+      </c>
+      <c r="G60" s="1">
+        <v>85</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>25080885</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="1">
+        <v>26</v>
+      </c>
+      <c r="G61" s="1">
+        <v>70</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>22111197</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F62" s="1">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1">
+        <v>75</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J62" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>22111244</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="1">
+        <v>24</v>
+      </c>
+      <c r="G63" s="1">
+        <v>80</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>24112209</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="1">
+        <v>24</v>
+      </c>
+      <c r="G64" s="1">
+        <v>85</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>24082425</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="1">
+        <v>23</v>
+      </c>
+      <c r="G65" s="1">
+        <v>80</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>24093093</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="1">
+        <v>24</v>
+      </c>
+      <c r="G66" s="1">
+        <v>80</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J66" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>24096360</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="1">
+        <v>26</v>
+      </c>
+      <c r="G67" s="1">
+        <v>90</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>24032424</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="1">
+        <v>26</v>
+      </c>
+      <c r="G68" s="1">
+        <v>75</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J68" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>24033817</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="1">
+        <v>25</v>
+      </c>
+      <c r="G69" s="1">
+        <v>85</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J69" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>24084034</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="1">
+        <v>26</v>
+      </c>
+      <c r="G70" s="1">
+        <v>90</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J70" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>25080877</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="1">
+        <v>26</v>
+      </c>
+      <c r="G71" s="1">
+        <v>75</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J71" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
